--- a/biology/Histoire de la zoologie et de la botanique/Samuel_Goodenough/Samuel_Goodenough.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Samuel_Goodenough/Samuel_Goodenough.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le révérend Samuel Goodenough (1743 - 12 août 1827) est un ecclésiastique et botaniste anglais.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est l'évêque de Carlisle de 1808 jusqu'à sa mort en 1827, et un botaniste et collectionneur amateur. Il est le premier trésorier de la Linnean Society of London. Il est honoré dans les noms scientifiques des plantes du genre Goodenia et le nom scientifique du Miro à front rouge (Petroica goodenovii).
 </t>
